--- a/www/IndicatorsPerCountry/Botswana_SO2EmissionsperCapita_TerritorialRef_1966_2012_CCode_72.xlsx
+++ b/www/IndicatorsPerCountry/Botswana_SO2EmissionsperCapita_TerritorialRef_1966_2012_CCode_72.xlsx
@@ -114,13 +114,13 @@
     <t>Klein Goldewijk, Kees (2015). SO2 Emissions per Capita. http://hdl.handle.net/10622/IRT0YU, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_IRT0YU.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_IRT0YU.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_IRT0YU.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_IRT0YU.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_IRT0YU.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_IRT0YU.bib</t>
   </si>
 </sst>
 </file>
